--- a/public/exports/reporteGeneral_formatoGV.xlsx
+++ b/public/exports/reporteGeneral_formatoGV.xlsx
@@ -34,7 +34,7 @@
     <t>REPORTE DE MOVIMIENTOS EN GUARDAVALORES</t>
   </si>
   <si>
-    <t>Número</t>
+    <t>Número de documento</t>
   </si>
 </sst>
 </file>
@@ -106,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -128,6 +128,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -512,18 +515,18 @@
   <dimension ref="B2:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="6" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="6" customWidth="1"/>
     <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" customWidth="1"/>
@@ -540,28 +543,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="6" spans="2:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="2:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -570,14 +573,14 @@
       <c r="D6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
